--- a/data/trans_bre/P1002-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.640753747275411</v>
+        <v>-0.9426285828154582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.938531816342159</v>
+        <v>8.939545988743665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.781998035315236</v>
+        <v>4.780643352416879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.38694443363788</v>
+        <v>3.27136143145668</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04779899788709686</v>
+        <v>-0.07543985529555335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9780020258234176</v>
+        <v>0.9791571813689935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5304419378928013</v>
+        <v>0.5239409538978911</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2102212066944436</v>
+        <v>0.1997235301461074</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.209061885844555</v>
+        <v>6.389689073645149</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.59842838054966</v>
+        <v>14.93897669079202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.99566496466141</v>
+        <v>10.0046835529063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.6167762341585</v>
+        <v>11.85232112177196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.699049960669249</v>
+        <v>0.7198176686425002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.187513205652764</v>
+        <v>2.274211022964045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.510946589443855</v>
+        <v>1.543477116840731</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.045405068496493</v>
+        <v>1.087169006602465</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8506303348515462</v>
+        <v>-0.9812588307148226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.239845348410398</v>
+        <v>3.768007903951142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.23671614559067</v>
+        <v>1.417299323050471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.372870154216856</v>
+        <v>2.495162854499624</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1345497960904243</v>
+        <v>-0.1643020304575698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3861004237842832</v>
+        <v>0.4381030321379367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2221026836318376</v>
+        <v>0.2409028285142513</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2793783106899931</v>
+        <v>0.291142200318</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.022317735245938</v>
+        <v>3.022164251265177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.17139239143224</v>
+        <v>9.029300226577066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.819626929321118</v>
+        <v>5.920724600034831</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.927116458910946</v>
+        <v>6.956357403040221</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6791067430801919</v>
+        <v>0.6911912840693557</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.612543748921377</v>
+        <v>1.509061213338835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.592032938591537</v>
+        <v>1.593225166682792</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.257222308715277</v>
+        <v>1.272556412607901</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.694134922069697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.025822440790134</v>
+        <v>4.025822440790136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.406770150081292</v>
@@ -849,7 +849,7 @@
         <v>0.920224018794081</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.233962956049809</v>
+        <v>1.23396295604981</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.935794823963955</v>
+        <v>1.879232590417366</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.614183791247799</v>
+        <v>0.5964932890450755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.283418891297768</v>
+        <v>1.425396620948747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.299009380581744</v>
+        <v>2.199797702933998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5558301010952397</v>
+        <v>0.5580746030706496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07793399059567668</v>
+        <v>0.06561629864307235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2314364038093196</v>
+        <v>0.2488247678374366</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5341657355338503</v>
+        <v>0.499072905548087</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.546192284967409</v>
+        <v>5.512369956729263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.74734718859917</v>
+        <v>5.994065053185448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.110123589878117</v>
+        <v>6.251883233787709</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.827972936412758</v>
+        <v>5.714628928855578</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.00268846739481</v>
+        <v>2.830996587474143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.179373415923392</v>
+        <v>1.219215309709429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.914865742567062</v>
+        <v>2.08154475302708</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.304610354908221</v>
+        <v>2.272218821469171</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.222246578222306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.552978837899972</v>
+        <v>3.552978837899973</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.239962065999714</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5022242132088651</v>
+        <v>0.4379799135970944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.269115305419365</v>
+        <v>1.274407572490465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.249141481042751</v>
+        <v>2.497522896276747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.459119948724868</v>
+        <v>1.423916792019999</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03316206103912828</v>
+        <v>0.002697174416716039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1468931633906781</v>
+        <v>0.1889758003200746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.485631725680252</v>
+        <v>0.5596641805707815</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2987452854772985</v>
+        <v>0.2914809599156425</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.388440528375407</v>
+        <v>6.1556964555959</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.329576222734968</v>
+        <v>7.765335397076109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.925462012255166</v>
+        <v>8.496563287854826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.495929571920825</v>
+        <v>5.641738206725519</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.648336677193341</v>
+        <v>3.699463540151623</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.461861236952263</v>
+        <v>2.340974361105886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.509554859698796</v>
+        <v>5.101116262112773</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.424608253914526</v>
+        <v>2.29558916870052</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.330500575385657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.064144316623802</v>
+        <v>5.064144316623804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6504957127462883</v>
@@ -1049,7 +1049,7 @@
         <v>1.009438287336716</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8895849169842599</v>
+        <v>0.8895849169842603</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.996523172436946</v>
+        <v>2.040617427392839</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.589459049537669</v>
+        <v>5.704838933554123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.052320942496527</v>
+        <v>4.083055518009882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.748106317910493</v>
+        <v>3.742437417846006</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.350484252267711</v>
+        <v>0.3526624474234203</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7554190242258302</v>
+        <v>0.7708739474415576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.703234789846925</v>
+        <v>0.6946456390390687</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5908438390477317</v>
+        <v>0.60417681825036</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.497544094478893</v>
+        <v>4.449322412293663</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.652738706026193</v>
+        <v>8.558716208633344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.713715551538403</v>
+        <v>6.781483834489554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.100414087377677</v>
+        <v>6.228254198864662</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.008120865810967</v>
+        <v>0.976420322293902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.420018354160776</v>
+        <v>1.424962797608037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.427997633845073</v>
+        <v>1.412856224264941</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.210453538599495</v>
+        <v>1.2477569232613</v>
       </c>
     </row>
     <row r="19">
